--- a/public/template/column.xlsx
+++ b/public/template/column.xlsx
@@ -1,60 +1,405 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="18135" windowHeight="7170"/>
+    <workbookView windowWidth="32700" windowHeight="18465"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="1" r:id="rId1"/>
     <sheet name="Table" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>attr1</t>
+    <t>Price</t>
   </si>
   <si>
-    <t>attr2</t>
+    <t>Apple</t>
   </si>
   <si>
-    <t>attr3</t>
+    <t>Blackberry</t>
   </si>
   <si>
-    <t>org1</t>
+    <t>Strawberry</t>
   </si>
   <si>
-    <t>org2</t>
+    <t>Cowberry</t>
+  </si>
+  <si>
+    <t>jasonchen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -62,30 +407,336 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -95,24 +746,28 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>org1</c:v>
+                  <c:v>Price</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Table!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>attr1</c:v>
+                  <c:v>Apple</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>attr2</c:v>
+                  <c:v>Blackberry</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>attr3</c:v>
+                  <c:v>Strawberry</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -127,10 +782,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -145,24 +800,28 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>org2</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Table!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>attr1</c:v>
+                  <c:v>Apple</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>attr2</c:v>
+                  <c:v>Blackberry</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>attr3</c:v>
+                  <c:v>Strawberry</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -173,19 +832,19 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="49222784"/>
         <c:axId val="49224320"/>
       </c:barChart>
@@ -194,23 +853,62 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="49224320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="49224320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="49222784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -219,9 +917,37 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -230,33 +956,2629 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Table!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Table!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Apple</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Blackberry</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Strawberry</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cowberry</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>jasonchen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="647135520"/>
+        <c:axId val="560116392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="647135520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560116392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="560116392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647135520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Table!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Table!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Apple</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Blackberry</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Strawberry</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cowberry</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>jasonchen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Table!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Table!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Apple</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Blackberry</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Strawberry</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cowberry</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>jasonchen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Table!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="278632351"/>
+        <c:axId val="530000561"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="278632351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530000561"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="530000561"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="278632351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>113665</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361316</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="3542665" y="733425"/>
+        <a:ext cx="7791450" cy="3390900"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10601325" y="4876800"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="219075" y="4924425"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5305425" y="4933950"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -544,75 +3866,84 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A$1:A$1048576 B$1:B$1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
+      <c r="B5">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>2</v>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
+      <c r="B6">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>